--- a/掃除当番表_見本.xlsx
+++ b/掃除当番表_見本.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15517\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\git\roster\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F72CEACF-9325-4F2B-8841-590C835FCE93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="-60" windowWidth="14436" windowHeight="12768"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,6 +447,9 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,9 +460,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -756,42 +757,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="A1:I42"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="5.77734375" customWidth="1"/>
-    <col min="4" max="9" width="14.77734375" customWidth="1"/>
+    <col min="1" max="3" width="5.75" customWidth="1"/>
+    <col min="4" max="9" width="14.75" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="15"/>
       <c r="K1" s="12">
         <v>5403</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -801,20 +802,20 @@
       <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+    <row r="3" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="21">
         <v>5</v>
       </c>
       <c r="B3" s="8">
@@ -833,7 +834,7 @@
         <v>2104</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="22">
+      <c r="H3" s="18">
         <v>5115</v>
       </c>
       <c r="I3" s="9">
@@ -844,8 +845,8 @@
         <v>5405</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="21"/>
       <c r="B4" s="8">
         <v>29</v>
       </c>
@@ -871,8 +872,8 @@
         <v>5406</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
+    <row r="5" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="21"/>
       <c r="B5" s="8">
         <v>30</v>
       </c>
@@ -900,8 +901,8 @@
         <v>5408</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22"/>
       <c r="B6" s="8">
         <v>31</v>
       </c>
@@ -928,8 +929,8 @@
       </c>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+    <row r="7" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
       <c r="B7" s="8">
@@ -959,8 +960,8 @@
         <v>5417</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+    <row r="8" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
       <c r="B8" s="16">
         <v>2</v>
       </c>
@@ -983,8 +984,8 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
+    <row r="9" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="20"/>
       <c r="B9" s="17">
         <v>3</v>
       </c>
@@ -1011,8 +1012,8 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+    <row r="10" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
       <c r="B10" s="8">
         <v>4</v>
       </c>
@@ -1039,8 +1040,8 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+    <row r="11" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
       <c r="B11" s="8">
         <v>5</v>
       </c>
@@ -1067,8 +1068,8 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+    <row r="12" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="20"/>
       <c r="B12" s="8">
         <v>6</v>
       </c>
@@ -1095,8 +1096,8 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+    <row r="13" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="20"/>
       <c r="B13" s="8">
         <v>7</v>
       </c>
@@ -1121,8 +1122,8 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
+    <row r="14" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="20"/>
       <c r="B14" s="8">
         <v>8</v>
       </c>
@@ -1147,8 +1148,8 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+    <row r="15" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="20"/>
       <c r="B15" s="16">
         <v>9</v>
       </c>
@@ -1171,8 +1172,8 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
+    <row r="16" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="20"/>
       <c r="B16" s="17">
         <v>10</v>
       </c>
@@ -1195,8 +1196,8 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+    <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="20"/>
       <c r="B17" s="8">
         <v>11</v>
       </c>
@@ -1221,8 +1222,8 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+    <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
       <c r="B18" s="8">
         <v>12</v>
       </c>
@@ -1245,8 +1246,8 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
+    <row r="19" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
       <c r="B19" s="8">
         <v>13</v>
       </c>
@@ -1271,8 +1272,8 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
+    <row r="20" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="20"/>
       <c r="B20" s="8">
         <v>14</v>
       </c>
@@ -1295,8 +1296,8 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
+    <row r="21" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="20"/>
       <c r="B21" s="8">
         <v>15</v>
       </c>
@@ -1321,8 +1322,8 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
+    <row r="22" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="20"/>
       <c r="B22" s="16">
         <v>16</v>
       </c>
@@ -1345,8 +1346,8 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
+    <row r="23" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="20"/>
       <c r="B23" s="17">
         <v>17</v>
       </c>
@@ -1369,8 +1370,8 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
+    <row r="24" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="20"/>
       <c r="B24" s="8">
         <v>18</v>
       </c>
@@ -1395,8 +1396,8 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
+    <row r="25" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="20"/>
       <c r="B25" s="8">
         <v>19</v>
       </c>
@@ -1423,8 +1424,8 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
+    <row r="26" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="20"/>
       <c r="B26" s="8">
         <v>20</v>
       </c>
@@ -1449,8 +1450,8 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
+    <row r="27" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="20"/>
       <c r="B27" s="8">
         <v>21</v>
       </c>
@@ -1477,8 +1478,8 @@
       </c>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
+    <row r="28" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="20"/>
       <c r="B28" s="8">
         <v>22</v>
       </c>
@@ -1505,8 +1506,8 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
+    <row r="29" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="20"/>
       <c r="B29" s="16">
         <v>23</v>
       </c>
@@ -1531,8 +1532,8 @@
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
+    <row r="30" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="20"/>
       <c r="B30" s="17">
         <v>24</v>
       </c>
@@ -1555,8 +1556,8 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
+    <row r="31" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="20"/>
       <c r="B31" s="8">
         <v>25</v>
       </c>
@@ -1583,8 +1584,8 @@
       </c>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
+    <row r="32" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="20"/>
       <c r="B32" s="8">
         <v>26</v>
       </c>
@@ -1609,8 +1610,8 @@
       </c>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
+    <row r="33" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="20"/>
       <c r="B33" s="8">
         <v>27</v>
       </c>
@@ -1635,8 +1636,8 @@
       </c>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
+    <row r="34" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="20"/>
       <c r="B34" s="8">
         <v>28</v>
       </c>
@@ -1661,8 +1662,8 @@
       </c>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
+    <row r="35" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="20"/>
       <c r="B35" s="8">
         <v>29</v>
       </c>
@@ -1687,8 +1688,8 @@
       </c>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
+    <row r="36" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="20"/>
       <c r="B36" s="16">
         <v>30</v>
       </c>
@@ -1712,8 +1713,8 @@
       <c r="J36" s="4"/>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
+    <row r="37" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="20"/>
       <c r="B37" s="17">
         <v>31</v>
       </c>
@@ -1737,7 +1738,7 @@
       <c r="J37" s="4"/>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>17</v>
       </c>
@@ -1752,7 +1753,7 @@
       <c r="J38" s="11"/>
       <c r="K38"/>
     </row>
-    <row r="39" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>18</v>
       </c>
@@ -1768,7 +1769,7 @@
       <c r="K39"/>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>12</v>
       </c>
@@ -1784,7 +1785,7 @@
       <c r="K40"/>
       <c r="L40"/>
     </row>
-    <row r="41" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>3</v>
       </c>
@@ -1800,22 +1801,22 @@
       <c r="K41"/>
       <c r="L41"/>
     </row>
-    <row r="42" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="29.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1824,17 +1825,17 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sortState ref="K2:K4">
     <sortCondition ref="K2:K4"/>
